--- a/loci_point/Output_excel/BL Intact_points.xlsx
+++ b/loci_point/Output_excel/BL Intact_points.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,16 +441,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
-        <v>4.121201</v>
+        <v>3.517703</v>
       </c>
       <c r="D2">
-        <v>47.725554</v>
+        <v>35.626369</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>38.46244458054138</v>
+        <v>51.28325944072184</v>
       </c>
       <c r="H2">
         <v>29</v>
@@ -468,7 +468,7 @@
         <v>1.7</v>
       </c>
       <c r="J2">
-        <v>9.018780108540735</v>
+        <v>12.02504014472098</v>
       </c>
       <c r="K2">
         <v>6.8</v>
@@ -476,597 +476,1752 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="C3">
-        <v>2.320366</v>
+        <v>10.505917</v>
       </c>
       <c r="D3">
-        <v>-22.610991</v>
+        <v>69.832713</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>18.56807669405446</v>
+        <v>42.73604953393486</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>13.28571428571429</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>17.90493109783823</v>
+        <v>10.02086678726748</v>
       </c>
       <c r="K3">
-        <v>27</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.161926</v>
+        <v>27.075798</v>
       </c>
       <c r="D4">
-        <v>-3.100468</v>
+        <v>118.885734</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>7.427230677621782</v>
+        <v>38.46244458054138</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I4">
-        <v>9.571428571428571</v>
+        <v>1.7</v>
       </c>
       <c r="J4">
-        <v>3.031522725559911</v>
+        <v>9.018780108540735</v>
       </c>
       <c r="K4">
-        <v>5.714285714285714</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.953251</v>
+        <v>2.878679</v>
       </c>
       <c r="D5">
-        <v>14.371754</v>
+        <v>-39.925517</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>11.57142857142857</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>-8.661493501599747</v>
+        <v>24.75743559207261</v>
       </c>
       <c r="H5">
-        <v>-22.85714285714285</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>12.42857142857143</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="J5">
-        <v>-6.496120126199809</v>
+        <v>23.49430112308931</v>
       </c>
       <c r="K5">
-        <v>-17.14285714285714</v>
+        <v>26.57142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.389039</v>
+        <v>0.912197</v>
       </c>
       <c r="D6">
-        <v>36.915887</v>
+        <v>-13.841608</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>13.09523809523809</v>
       </c>
       <c r="G6">
-        <v>-9.645754126781537</v>
+        <v>18.34702816198238</v>
       </c>
       <c r="H6">
-        <v>-40</v>
+        <v>27.66666666666666</v>
       </c>
       <c r="I6">
-        <v>9.428571428571429</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>-8.956771689154282</v>
+        <v>7.957747154594767</v>
       </c>
       <c r="K6">
-        <v>-37.14285714285714</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.873937</v>
+        <v>0.927697</v>
       </c>
       <c r="D7">
-        <v>47.539358</v>
+        <v>-2.776728</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>14.47619047619048</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>-11.27104603092788</v>
+        <v>7.427230677621782</v>
       </c>
       <c r="H7">
-        <v>-55.23809523809524</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>14.28571428571429</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="J7">
-        <v>-9.61925480225741</v>
+        <v>2.829421210522584</v>
       </c>
       <c r="K7">
-        <v>-47.14285714285714</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4.532889</v>
+        <v>2.174488</v>
       </c>
       <c r="D8">
-        <v>60.146432</v>
+        <v>10.023619</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3.428571428571429</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>-9.399206489787471</v>
+        <v>-6.189358898018154</v>
       </c>
       <c r="H8">
-        <v>-60.23809523809524</v>
+        <v>-14</v>
       </c>
       <c r="I8">
-        <v>3.285714285714286</v>
+        <v>10.95238095238095</v>
       </c>
       <c r="J8">
-        <v>-9.213451420819341</v>
+        <v>1.347343433582183</v>
       </c>
       <c r="K8">
-        <v>-59.04761904761905</v>
+        <v>3.047619047619047</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3.019512</v>
+        <v>52.60518</v>
       </c>
       <c r="D9">
-        <v>75.31605500000001</v>
+        <v>70.820655</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>-6.980479960170848</v>
+        <v>-37.89403406949889</v>
       </c>
       <c r="H9">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-6.980479960170848</v>
+        <v>-22.73642044169934</v>
       </c>
       <c r="K9">
-        <v>-50</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.937633</v>
+        <v>6.758922</v>
       </c>
       <c r="D10">
-        <v>100.300708</v>
+        <v>-30.605634</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>-5.766483445358528</v>
+        <v>11.05242660360384</v>
       </c>
       <c r="H10">
-        <v>-50</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>-5.766483445358528</v>
+        <v>9.947183943243459</v>
       </c>
       <c r="K10">
-        <v>-50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.490882</v>
+        <v>2.325241</v>
       </c>
       <c r="D11">
-        <v>114.094622</v>
+        <v>-13.977001</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>21.22065907891938</v>
+        <v>4.420970641441538</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>-3.183098861837907</v>
+        <v>3.929751681281367</v>
       </c>
       <c r="K11">
-        <v>-30</v>
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>12.308895</v>
+        <v>1.672793</v>
       </c>
       <c r="D12">
-        <v>146.415577</v>
+        <v>-7.909013</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>95.2904761904762</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>-12.37000652383642</v>
+        <v>2.652582384864923</v>
       </c>
       <c r="H12">
-        <v>-135.2380952380952</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>47.6952380952381</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>-8.01437042389402</v>
+        <v>2.652582384864923</v>
       </c>
       <c r="K12">
-        <v>-87.61904761904762</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>18.31352</v>
+        <v>1.523042</v>
       </c>
       <c r="D13">
-        <v>165.50795</v>
+        <v>-4.315294</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>123.847619047619</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>-14.01671797839529</v>
+        <v>2.411438531695384</v>
       </c>
       <c r="H13">
-        <v>-163.8095238095238</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>57.21428571428572</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="J13">
-        <v>-8.31223973137395</v>
+        <v>2.181777719152966</v>
       </c>
       <c r="K13">
-        <v>-97.14285714285714</v>
+        <v>9.047619047619047</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>45.095553</v>
+        <v>1.527172</v>
       </c>
       <c r="D14">
-        <v>200.469406</v>
+        <v>-1.720369</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>190.4809523809524</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>-17.46734522822615</v>
+        <v>1.684179291977729</v>
       </c>
       <c r="H14">
-        <v>-230.4761904761905</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="I14">
-        <v>57.21428571428572</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>-7.362269476359784</v>
+        <v>0.52630602874304</v>
       </c>
       <c r="K14">
-        <v>-97.14285714285714</v>
+        <v>2.38095238095238</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>55.059485</v>
+        <v>1.601573</v>
       </c>
       <c r="D15">
-        <v>205.185656</v>
+        <v>0.357485</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
-        <v>-17.20593979371842</v>
+        <v>-3.012089887575554</v>
       </c>
       <c r="H15">
-        <v>-240</v>
+        <v>-14.76190476190476</v>
       </c>
       <c r="I15">
-        <v>57.21428571428572</v>
+        <v>0.8</v>
       </c>
       <c r="J15">
-        <v>-6.964308964124121</v>
+        <v>0.0971641899217917</v>
       </c>
       <c r="K15">
-        <v>-97.14285714285714</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>43.405026</v>
+        <v>1.718673</v>
       </c>
       <c r="D16">
-        <v>244.611242</v>
+        <v>2.126928</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>0.8952380952380953</v>
       </c>
       <c r="G16">
-        <v>-15.52731152116052</v>
+        <v>-0.9022389064166405</v>
       </c>
       <c r="H16">
-        <v>-240</v>
+        <v>-4.761904761904763</v>
       </c>
       <c r="I16">
-        <v>76.25238095238095</v>
+        <v>1.019047619047619</v>
       </c>
       <c r="J16">
-        <v>-7.517190498339618</v>
+        <v>-0.1804477812833281</v>
       </c>
       <c r="K16">
-        <v>-116.1904761904762</v>
+        <v>-0.9523809523809526</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>43.094971</v>
+        <v>1.875296</v>
       </c>
       <c r="D17">
-        <v>283.206186</v>
+        <v>3.695204</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>0.8952380952380953</v>
       </c>
       <c r="G17">
-        <v>-14.80511098529259</v>
+        <v>-0.8420896459888644</v>
       </c>
       <c r="H17">
-        <v>-240</v>
+        <v>-4.761904761904763</v>
       </c>
       <c r="I17">
-        <v>104.8095238095238</v>
+        <v>0.8952380952380953</v>
       </c>
       <c r="J17">
-        <v>-8.930066943509818</v>
+        <v>-0.8420896459888644</v>
       </c>
       <c r="K17">
-        <v>-144.7619047619048</v>
+        <v>-4.761904761904763</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>58.900729</v>
+        <v>2.027622</v>
       </c>
       <c r="D18">
-        <v>392.468423</v>
+        <v>5.095864</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>-13.54510153973578</v>
+        <v>-0.9473508517374722</v>
       </c>
       <c r="H18">
-        <v>-240</v>
+        <v>-5.714285714285714</v>
       </c>
       <c r="I18">
-        <v>142.8857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="J18">
-        <v>-10.32007736360821</v>
+        <v>-0.9473508517374722</v>
       </c>
       <c r="K18">
-        <v>-182.8571428571429</v>
+        <v>-5.714285714285714</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2.180136</v>
+      </c>
+      <c r="D19">
+        <v>6.370913</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>-1.337436496570549</v>
+      </c>
+      <c r="H19">
+        <v>-8.571428571428571</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>-0.8916243310470328</v>
+      </c>
+      <c r="K19">
+        <v>-5.714285714285714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.380532</v>
+      </c>
+      <c r="D20">
+        <v>7.641635</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>-1.263134468983296</v>
+      </c>
+      <c r="H20">
+        <v>-8.571428571428571</v>
+      </c>
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+      <c r="J20">
+        <v>-1.263134468983296</v>
+      </c>
+      <c r="K20">
+        <v>-8.571428571428571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>2.599376</v>
+      </c>
+      <c r="D21">
+        <v>8.82404</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-1.662019038135917</v>
+      </c>
+      <c r="H21">
+        <v>-11.90476190476191</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-0.9972114228815503</v>
+      </c>
+      <c r="K21">
+        <v>-7.142857142857146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2.83237</v>
+      </c>
+      <c r="D22">
+        <v>9.952857</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>-1.578918086229121</v>
+      </c>
+      <c r="H22">
+        <v>-11.90476190476191</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>-1.578918086229121</v>
+      </c>
+      <c r="K22">
+        <v>-11.90476190476191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>3.080134</v>
+      </c>
+      <c r="D23">
+        <v>11.039805</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>-1.5037315106944</v>
+      </c>
+      <c r="H23">
+        <v>-11.90476190476191</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>-1.5037315106944</v>
+      </c>
+      <c r="K23">
+        <v>-11.90476190476191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>3.342968</v>
+      </c>
+      <c r="D24">
+        <v>12.092465</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>-1.43538007839011</v>
+      </c>
+      <c r="H24">
+        <v>-11.90476190476191</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>-1.43538007839011</v>
+      </c>
+      <c r="K24">
+        <v>-11.90476190476191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3.621153</v>
+      </c>
+      <c r="D25">
+        <v>13.116404</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>-1.922161148452842</v>
+      </c>
+      <c r="H25">
+        <v>-16.66666666666666</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>-1.372972248894888</v>
+      </c>
+      <c r="K25">
+        <v>-11.90476190476191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3.915033</v>
+      </c>
+      <c r="D26">
+        <v>14.11588</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>-1.842071100600641</v>
+      </c>
+      <c r="H26">
+        <v>-16.66666666666666</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>-1.315765071857601</v>
+      </c>
+      <c r="K26">
+        <v>-11.90476190476191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>4.225066</v>
+      </c>
+      <c r="D27">
+        <v>15.094199</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>-1.818913635335947</v>
+      </c>
+      <c r="H27">
+        <v>-17.14285714285714</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="J27">
+        <v>-1.667337499057951</v>
+      </c>
+      <c r="K27">
+        <v>-15.71428571428571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>148</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>4.55185</v>
+      </c>
+      <c r="D28">
+        <v>16.05393</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>-1.748955418592256</v>
+      </c>
+      <c r="H28">
+        <v>-17.14285714285714</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>-1.603209133709569</v>
+      </c>
+      <c r="K28">
+        <v>-15.71428571428571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>4.89616</v>
+      </c>
+      <c r="D29">
+        <v>16.997008</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>-1.824527566309206</v>
+      </c>
+      <c r="H29">
+        <v>-18.57142857142857</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>-1.684179291977729</v>
+      </c>
+      <c r="K29">
+        <v>-17.14285714285714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>5.258997</v>
+      </c>
+      <c r="D30">
+        <v>17.924771</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>-1.804477812833281</v>
+      </c>
+      <c r="H30">
+        <v>-19.04761904761905</v>
+      </c>
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>-1.804477812833281</v>
+      </c>
+      <c r="K30">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>166</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>5.641636</v>
+      </c>
+      <c r="D31">
+        <v>18.837893</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <v>-1.742254439976961</v>
+      </c>
+      <c r="H31">
+        <v>-19.04761904761905</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>-1.742254439976961</v>
+      </c>
+      <c r="K31">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>172</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>6.04566</v>
+      </c>
+      <c r="D32">
+        <v>19.736185</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <v>-1.684179291977729</v>
+      </c>
+      <c r="H32">
+        <v>-19.04761904761905</v>
+      </c>
+      <c r="I32">
+        <v>0.1</v>
+      </c>
+      <c r="J32">
+        <v>-1.684179291977729</v>
+      </c>
+      <c r="K32">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>6.472895</v>
+      </c>
+      <c r="D33">
+        <v>20.618189</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>-1.629850927720383</v>
+      </c>
+      <c r="H33">
+        <v>-19.04761904761905</v>
+      </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
+      <c r="J33">
+        <v>-1.629850927720383</v>
+      </c>
+      <c r="K33">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>6.925057</v>
+      </c>
+      <c r="D34">
+        <v>21.480462</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="G34">
+        <v>-2.447323033655137</v>
+      </c>
+      <c r="H34">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I34">
+        <v>0.1</v>
+      </c>
+      <c r="J34">
+        <v>-1.578918086229121</v>
+      </c>
+      <c r="K34">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>7.40257</v>
+      </c>
+      <c r="D35">
+        <v>22.316555</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
+      <c r="G35">
+        <v>-2.373161729604981</v>
+      </c>
+      <c r="H35">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I35">
+        <v>0.1</v>
+      </c>
+      <c r="J35">
+        <v>-1.531072083616117</v>
+      </c>
+      <c r="K35">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>196</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>7.901573</v>
+      </c>
+      <c r="D36">
+        <v>23.116306</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+      <c r="G36">
+        <v>-2.303362855204835</v>
+      </c>
+      <c r="H36">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I36">
+        <v>0.1</v>
+      </c>
+      <c r="J36">
+        <v>-1.486040551745055</v>
+      </c>
+      <c r="K36">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>8.408207000000001</v>
+      </c>
+      <c r="D37">
+        <v>23.868177</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+      <c r="G37">
+        <v>-2.237552487913268</v>
+      </c>
+      <c r="H37">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I37">
+        <v>0.1</v>
+      </c>
+      <c r="J37">
+        <v>-1.443582250266624</v>
+      </c>
+      <c r="K37">
+        <v>-19.04761904761905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>8.893878000000001</v>
+      </c>
+      <c r="D38">
+        <v>24.570409</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+      <c r="G38">
+        <v>-2.175398252137899</v>
+      </c>
+      <c r="H38">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I38">
+        <v>0.1</v>
+      </c>
+      <c r="J38">
+        <v>-2.175398252137899</v>
+      </c>
+      <c r="K38">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>9.326935000000001</v>
+      </c>
+      <c r="D39">
+        <v>25.249802</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+      <c r="G39">
+        <v>-2.116603704782821</v>
+      </c>
+      <c r="H39">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I39">
+        <v>0.1</v>
+      </c>
+      <c r="J39">
+        <v>-2.116603704782821</v>
+      </c>
+      <c r="K39">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>220</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>9.707568999999999</v>
+      </c>
+      <c r="D40">
+        <v>25.958019</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40">
+        <v>-2.060903607288536</v>
+      </c>
+      <c r="H40">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I40">
+        <v>0.1</v>
+      </c>
+      <c r="J40">
+        <v>-2.060903607288536</v>
+      </c>
+      <c r="K40">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>226</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>10.078193</v>
+      </c>
+      <c r="D41">
+        <v>26.727101</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <v>-2.008059925050369</v>
+      </c>
+      <c r="H41">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I41">
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <v>-2.008059925050369</v>
+      </c>
+      <c r="K41">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>232</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>10.48243</v>
+      </c>
+      <c r="D42">
+        <v>27.546241</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="G42">
+        <v>-1.957858426924109</v>
+      </c>
+      <c r="H42">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I42">
+        <v>0.1</v>
+      </c>
+      <c r="J42">
+        <v>-1.957858426924109</v>
+      </c>
+      <c r="K42">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>238</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>10.937088</v>
+      </c>
+      <c r="D43">
+        <v>28.387831</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43">
+        <v>-1.910105782364985</v>
+      </c>
+      <c r="H43">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I43">
+        <v>0.1</v>
+      </c>
+      <c r="J43">
+        <v>-1.910105782364985</v>
+      </c>
+      <c r="K43">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>244</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>11.441256</v>
+      </c>
+      <c r="D44">
+        <v>29.228961</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>0.1</v>
+      </c>
+      <c r="G44">
+        <v>-1.864627073261057</v>
+      </c>
+      <c r="H44">
+        <v>-29.52380952380953</v>
+      </c>
+      <c r="I44">
+        <v>0.1</v>
+      </c>
+      <c r="J44">
+        <v>-1.864627073261057</v>
+      </c>
+      <c r="K44">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>11.980085</v>
+      </c>
+      <c r="D45">
+        <v>30.05843</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>0.1</v>
+      </c>
+      <c r="G45">
+        <v>-2.467518497548765</v>
+      </c>
+      <c r="H45">
+        <v>-40</v>
+      </c>
+      <c r="I45">
+        <v>0.1</v>
+      </c>
+      <c r="J45">
+        <v>-1.82126365295266</v>
+      </c>
+      <c r="K45">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>256</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>12.550822</v>
+      </c>
+      <c r="D46">
+        <v>30.878257</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>0.1</v>
+      </c>
+      <c r="G46">
+        <v>-2.411438531695384</v>
+      </c>
+      <c r="H46">
+        <v>-40</v>
+      </c>
+      <c r="I46">
+        <v>0.1</v>
+      </c>
+      <c r="J46">
+        <v>-1.779871297203736</v>
+      </c>
+      <c r="K46">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>262</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>13.149812</v>
+      </c>
+      <c r="D47">
+        <v>31.684213</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="G47">
+        <v>-2.35785100876882</v>
+      </c>
+      <c r="H47">
+        <v>-40</v>
+      </c>
+      <c r="I47">
+        <v>0.1</v>
+      </c>
+      <c r="J47">
+        <v>-1.74031860171032</v>
+      </c>
+      <c r="K47">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>13.772221</v>
+      </c>
+      <c r="D48">
+        <v>32.476509</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+      <c r="G48">
+        <v>-2.306593378143411</v>
+      </c>
+      <c r="H48">
+        <v>-40</v>
+      </c>
+      <c r="I48">
+        <v>0.1</v>
+      </c>
+      <c r="J48">
+        <v>-1.702485588629661</v>
+      </c>
+      <c r="K48">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>274</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>14.417132</v>
+      </c>
+      <c r="D49">
+        <v>33.256617</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>0.1</v>
+      </c>
+      <c r="G49">
+        <v>-2.257516923289296</v>
+      </c>
+      <c r="H49">
+        <v>-40</v>
+      </c>
+      <c r="I49">
+        <v>0.1</v>
+      </c>
+      <c r="J49">
+        <v>-1.666262490999242</v>
+      </c>
+      <c r="K49">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>280</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>15.083624</v>
+      </c>
+      <c r="D50">
+        <v>34.02432</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>0.1</v>
+      </c>
+      <c r="G50">
+        <v>-2.210485320720769</v>
+      </c>
+      <c r="H50">
+        <v>-40</v>
+      </c>
+      <c r="I50">
+        <v>0.1</v>
+      </c>
+      <c r="J50">
+        <v>-1.631548689103425</v>
+      </c>
+      <c r="K50">
+        <v>-29.52380952380953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
         <v>286</v>
       </c>
-      <c r="B19">
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>78.28912099999999</v>
-      </c>
-      <c r="D19">
-        <v>471.579021</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>460</v>
-      </c>
-      <c r="G19">
-        <v>-12.99224025239962</v>
-      </c>
-      <c r="H19">
-        <v>-240</v>
-      </c>
-      <c r="I19">
-        <v>180.9619047619047</v>
-      </c>
-      <c r="J19">
-        <v>-11.96111007363775</v>
-      </c>
-      <c r="K19">
-        <v>-220.952380952381</v>
+      <c r="C51">
+        <v>15.770903</v>
+      </c>
+      <c r="D51">
+        <v>34.779893</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+      <c r="G51">
+        <v>-2.165373375399937</v>
+      </c>
+      <c r="H51">
+        <v>-40</v>
+      </c>
+      <c r="I51">
+        <v>0.1</v>
+      </c>
+      <c r="J51">
+        <v>-2.165373375399937</v>
+      </c>
+      <c r="K51">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>292</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>16.478616</v>
+      </c>
+      <c r="D52">
+        <v>35.523552</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+      <c r="G52">
+        <v>-2.122065907891938</v>
+      </c>
+      <c r="H52">
+        <v>-40</v>
+      </c>
+      <c r="I52">
+        <v>0.1</v>
+      </c>
+      <c r="J52">
+        <v>-2.122065907891938</v>
+      </c>
+      <c r="K52">
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
